--- a/etc/doc/딥서치_백테스트/sample_rebalancing_deepsearch_드론.xlsx
+++ b/etc/doc/딥서치_백테스트/sample_rebalancing_deepsearch_드론.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\etp\etc\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\etp\etc\doc\딥서치_백테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>39</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>58</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>57</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>40</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>75</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>42</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>56</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>48</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>47</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>84</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>85</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>51</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>234</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>181</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
-        <v>20180611</v>
+        <v>20180618</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>44</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>39</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>56</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>42</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>58</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>55</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>57</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>40</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>83</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>48</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>87</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>86</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>84</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>234</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>80</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
-        <v>20190610</v>
+        <v>20190617</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>172</v>

--- a/etc/doc/딥서치_백테스트/sample_rebalancing_deepsearch_드론.xlsx
+++ b/etc/doc/딥서치_백테스트/sample_rebalancing_deepsearch_드론.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\etp\etc\doc\딥서치_백테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\doc\딥서치_백테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="254">
   <si>
     <t>CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -849,6 +849,10 @@
   </si>
   <si>
     <t>223310</t>
+  </si>
+  <si>
+    <t>001040</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1345,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -2042,11 +2046,9 @@
         <v>20190617</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.15</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C61" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
